--- a/Code/Results/Cases/Case_3_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.024002521445367</v>
+        <v>1.048832438469514</v>
       </c>
       <c r="D2">
-        <v>1.039200576287787</v>
+        <v>1.051577634859348</v>
       </c>
       <c r="E2">
-        <v>1.035459421181337</v>
+        <v>1.056448354664799</v>
       </c>
       <c r="F2">
-        <v>1.04301857653516</v>
+        <v>1.068074410413953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058446080576031</v>
+        <v>1.048601033404903</v>
       </c>
       <c r="J2">
-        <v>1.045488278519817</v>
+        <v>1.053874097212401</v>
       </c>
       <c r="K2">
-        <v>1.05013951857639</v>
+        <v>1.054328750161321</v>
       </c>
       <c r="L2">
-        <v>1.046445902093978</v>
+        <v>1.059186037602366</v>
       </c>
       <c r="M2">
-        <v>1.053909442187217</v>
+        <v>1.070780567098123</v>
       </c>
       <c r="N2">
-        <v>1.018352115705208</v>
+        <v>1.021716025764823</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029150336641001</v>
+        <v>1.049889857897529</v>
       </c>
       <c r="D3">
-        <v>1.043202577161222</v>
+        <v>1.052410194190819</v>
       </c>
       <c r="E3">
-        <v>1.039949167369794</v>
+        <v>1.057421644908147</v>
       </c>
       <c r="F3">
-        <v>1.048142964222817</v>
+        <v>1.069203208465161</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060523982939334</v>
+        <v>1.048955975781732</v>
       </c>
       <c r="J3">
-        <v>1.048876691135801</v>
+        <v>1.054580023675025</v>
       </c>
       <c r="K3">
-        <v>1.053310976475937</v>
+        <v>1.054973932454646</v>
       </c>
       <c r="L3">
-        <v>1.050095186933092</v>
+        <v>1.059972562450034</v>
       </c>
       <c r="M3">
-        <v>1.058194787124664</v>
+        <v>1.071724495233988</v>
       </c>
       <c r="N3">
-        <v>1.019535570945666</v>
+        <v>1.021958050819042</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032406377774576</v>
+        <v>1.050574120440573</v>
       </c>
       <c r="D4">
-        <v>1.045735884579432</v>
+        <v>1.052948874847748</v>
       </c>
       <c r="E4">
-        <v>1.042794485931567</v>
+        <v>1.058051814650905</v>
       </c>
       <c r="F4">
-        <v>1.051391513956468</v>
+        <v>1.069934280056664</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061827883506413</v>
+        <v>1.04918438026571</v>
       </c>
       <c r="J4">
-        <v>1.05101594417497</v>
+        <v>1.055036254886989</v>
       </c>
       <c r="K4">
-        <v>1.055311959260271</v>
+        <v>1.055390719906468</v>
       </c>
       <c r="L4">
-        <v>1.052402461585611</v>
+        <v>1.060481262562683</v>
       </c>
       <c r="M4">
-        <v>1.060906864680089</v>
+        <v>1.072335352584667</v>
       </c>
       <c r="N4">
-        <v>1.020282082228179</v>
+        <v>1.022114305323495</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033757987299835</v>
+        <v>1.050861794570342</v>
       </c>
       <c r="D5">
-        <v>1.046787909545913</v>
+        <v>1.053175325984747</v>
       </c>
       <c r="E5">
-        <v>1.043976881727983</v>
+        <v>1.058316830135869</v>
       </c>
       <c r="F5">
-        <v>1.052741740979344</v>
+        <v>1.070241781398212</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062366611407065</v>
+        <v>1.049280098105534</v>
       </c>
       <c r="J5">
-        <v>1.0519029822035</v>
+        <v>1.05522792259861</v>
       </c>
       <c r="K5">
-        <v>1.056141343688089</v>
+        <v>1.055565772291504</v>
       </c>
       <c r="L5">
-        <v>1.053359968849389</v>
+        <v>1.06069506390823</v>
       </c>
       <c r="M5">
-        <v>1.062033007723214</v>
+        <v>1.072592174334372</v>
       </c>
       <c r="N5">
-        <v>1.020591454913679</v>
+        <v>1.022179910326635</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033983938011747</v>
+        <v>1.050910096924928</v>
       </c>
       <c r="D6">
-        <v>1.046963801908577</v>
+        <v>1.053213347516125</v>
       </c>
       <c r="E6">
-        <v>1.044174618818104</v>
+        <v>1.058361332796858</v>
       </c>
       <c r="F6">
-        <v>1.052967561264675</v>
+        <v>1.07029342153948</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062456521443799</v>
+        <v>1.049296151757602</v>
       </c>
       <c r="J6">
-        <v>1.05205121091336</v>
+        <v>1.055260096713246</v>
       </c>
       <c r="K6">
-        <v>1.056279919106657</v>
+        <v>1.055595154672277</v>
       </c>
       <c r="L6">
-        <v>1.053520020415045</v>
+        <v>1.060730958796142</v>
       </c>
       <c r="M6">
-        <v>1.062221285650691</v>
+        <v>1.072635296849246</v>
       </c>
       <c r="N6">
-        <v>1.020643142607691</v>
+        <v>1.022190920742363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032424504838883</v>
+        <v>1.050577964316165</v>
       </c>
       <c r="D7">
-        <v>1.045749992151769</v>
+        <v>1.052951900739569</v>
       </c>
       <c r="E7">
-        <v>1.042810338584693</v>
+        <v>1.058055355439109</v>
       </c>
       <c r="F7">
-        <v>1.051409615692397</v>
+        <v>1.069938388280558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061835118693733</v>
+        <v>1.049185660444454</v>
       </c>
       <c r="J7">
-        <v>1.051027844588343</v>
+        <v>1.055038816478715</v>
       </c>
       <c r="K7">
-        <v>1.055323087475661</v>
+        <v>1.055393059613822</v>
       </c>
       <c r="L7">
-        <v>1.052415304243306</v>
+        <v>1.060484119607662</v>
       </c>
       <c r="M7">
-        <v>1.060921966622172</v>
+        <v>1.072338784181509</v>
       </c>
       <c r="N7">
-        <v>1.020286233414551</v>
+        <v>1.022115182272537</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025758207270955</v>
+        <v>1.049189789867829</v>
       </c>
       <c r="D8">
-        <v>1.040565022933051</v>
+        <v>1.051859010400839</v>
       </c>
       <c r="E8">
-        <v>1.036989485600524</v>
+        <v>1.056777202609114</v>
       </c>
       <c r="F8">
-        <v>1.04476471425174</v>
+        <v>1.068455755523088</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059156917134806</v>
+        <v>1.048721250122414</v>
       </c>
       <c r="J8">
-        <v>1.046644719141756</v>
+        <v>1.054112782260087</v>
       </c>
       <c r="K8">
-        <v>1.051222181468699</v>
+        <v>1.054546935004469</v>
       </c>
       <c r="L8">
-        <v>1.04769067940223</v>
+        <v>1.059451895730952</v>
       </c>
       <c r="M8">
-        <v>1.055370628894936</v>
+        <v>1.071099556916639</v>
       </c>
       <c r="N8">
-        <v>1.018756152248343</v>
+        <v>1.021797892037354</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013403261100171</v>
+        <v>1.046743956056497</v>
       </c>
       <c r="D9">
-        <v>1.030974112077605</v>
+        <v>1.049932902848512</v>
       </c>
       <c r="E9">
-        <v>1.026247608404578</v>
+        <v>1.054527900166732</v>
       </c>
       <c r="F9">
-        <v>1.032509564137554</v>
+        <v>1.06584825326342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054112025532088</v>
+        <v>1.047893200124498</v>
       </c>
       <c r="J9">
-        <v>1.0384914345533</v>
+        <v>1.052476781080288</v>
       </c>
       <c r="K9">
-        <v>1.043583878105941</v>
+        <v>1.053050689685976</v>
       </c>
       <c r="L9">
-        <v>1.038928721171527</v>
+        <v>1.057631198968513</v>
       </c>
       <c r="M9">
-        <v>1.045096331302108</v>
+        <v>1.068916440817413</v>
       </c>
       <c r="N9">
-        <v>1.01590516924129</v>
+        <v>1.021236097455618</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004706369570604</v>
+        <v>1.045113588800083</v>
       </c>
       <c r="D10">
-        <v>1.024239408304765</v>
+        <v>1.048648654939387</v>
       </c>
       <c r="E10">
-        <v>1.018720695690677</v>
+        <v>1.053030371529929</v>
       </c>
       <c r="F10">
-        <v>1.023926132388125</v>
+        <v>1.064113338210614</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050508356783453</v>
+        <v>1.047334648953143</v>
       </c>
       <c r="J10">
-        <v>1.032734496111698</v>
+        <v>1.051383287094274</v>
       </c>
       <c r="K10">
-        <v>1.038184383092939</v>
+        <v>1.052049661839775</v>
       </c>
       <c r="L10">
-        <v>1.032759973295087</v>
+        <v>1.056416206087551</v>
       </c>
       <c r="M10">
-        <v>1.037876425248108</v>
+        <v>1.067461409293886</v>
       </c>
       <c r="N10">
-        <v>1.013889534621988</v>
+        <v>1.020859767957736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000818678462098</v>
+        <v>1.044407661661176</v>
       </c>
       <c r="D11">
-        <v>1.021233716413569</v>
+        <v>1.048092523591809</v>
       </c>
       <c r="E11">
-        <v>1.015364977079045</v>
+        <v>1.052382402685791</v>
       </c>
       <c r="F11">
-        <v>1.02010001376</v>
+        <v>1.06336291101556</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048885611550945</v>
+        <v>1.047091244474434</v>
       </c>
       <c r="J11">
-        <v>1.030157439068401</v>
+        <v>1.050909121901566</v>
       </c>
       <c r="K11">
-        <v>1.035766005964322</v>
+        <v>1.051615369527483</v>
       </c>
       <c r="L11">
-        <v>1.030002835225992</v>
+        <v>1.055889817823942</v>
       </c>
       <c r="M11">
-        <v>1.034652573736581</v>
+        <v>1.066831454112936</v>
       </c>
       <c r="N11">
-        <v>1.012986786972988</v>
+        <v>1.020696387678688</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9993551213589967</v>
+        <v>1.044145453266433</v>
       </c>
       <c r="D12">
-        <v>1.020103011681168</v>
+        <v>1.047885945340301</v>
       </c>
       <c r="E12">
-        <v>1.014103104629203</v>
+        <v>1.052141788999797</v>
       </c>
       <c r="F12">
-        <v>1.018661322267923</v>
+        <v>1.063084289312423</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048272992711613</v>
+        <v>1.047000600573109</v>
       </c>
       <c r="J12">
-        <v>1.029186798705024</v>
+        <v>1.050732894332233</v>
       </c>
       <c r="K12">
-        <v>1.034854944827936</v>
+        <v>1.051453927741822</v>
       </c>
       <c r="L12">
-        <v>1.028965008975088</v>
+        <v>1.055694250412689</v>
       </c>
       <c r="M12">
-        <v>1.03343952595893</v>
+        <v>1.066597473048623</v>
       </c>
       <c r="N12">
-        <v>1.012646714006722</v>
+        <v>1.02063563688025</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9996699616494618</v>
+        <v>1.044201697667615</v>
       </c>
       <c r="D13">
-        <v>1.020346210525185</v>
+        <v>1.04793025735819</v>
       </c>
       <c r="E13">
-        <v>1.014374493252538</v>
+        <v>1.052193398248009</v>
       </c>
       <c r="F13">
-        <v>1.018970736376929</v>
+        <v>1.063144049169625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048404856053572</v>
+        <v>1.047020054525898</v>
       </c>
       <c r="J13">
-        <v>1.029395623702286</v>
+        <v>1.050770700338661</v>
       </c>
       <c r="K13">
-        <v>1.035050960106535</v>
+        <v>1.051488563267258</v>
       </c>
       <c r="L13">
-        <v>1.029188259473492</v>
+        <v>1.05573620224984</v>
       </c>
       <c r="M13">
-        <v>1.033700448550084</v>
+        <v>1.06664766222509</v>
       </c>
       <c r="N13">
-        <v>1.012719880111083</v>
+        <v>1.020648671031547</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000698105279274</v>
+        <v>1.04438598734724</v>
       </c>
       <c r="D14">
-        <v>1.021140547745537</v>
+        <v>1.048075447896419</v>
       </c>
       <c r="E14">
-        <v>1.015260990166783</v>
+        <v>1.052362512039039</v>
       </c>
       <c r="F14">
-        <v>1.019981454511923</v>
+        <v>1.063339877604255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048835176408464</v>
+        <v>1.04708375656735</v>
       </c>
       <c r="J14">
-        <v>1.030077483660221</v>
+        <v>1.050894556946835</v>
       </c>
       <c r="K14">
-        <v>1.035690962054037</v>
+        <v>1.051602027275188</v>
       </c>
       <c r="L14">
-        <v>1.029917332429917</v>
+        <v>1.055873653045819</v>
       </c>
       <c r="M14">
-        <v>1.034552625859855</v>
+        <v>1.066812112914274</v>
       </c>
       <c r="N14">
-        <v>1.012958774901888</v>
+        <v>1.020691367305642</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001328958049345</v>
+        <v>1.044499534865326</v>
       </c>
       <c r="D15">
-        <v>1.021628050684349</v>
+        <v>1.048164903750089</v>
       </c>
       <c r="E15">
-        <v>1.015805119884077</v>
+        <v>1.052466718009222</v>
       </c>
       <c r="F15">
-        <v>1.02060183916134</v>
+        <v>1.06346054991046</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049098989101113</v>
+        <v>1.047122974668946</v>
       </c>
       <c r="J15">
-        <v>1.030495800200705</v>
+        <v>1.050970855638177</v>
       </c>
       <c r="K15">
-        <v>1.036083574718457</v>
+        <v>1.051671919461843</v>
       </c>
       <c r="L15">
-        <v>1.030364698311003</v>
+        <v>1.055958335268767</v>
       </c>
       <c r="M15">
-        <v>1.035075589496393</v>
+        <v>1.066913438042236</v>
       </c>
       <c r="N15">
-        <v>1.013105328303417</v>
+        <v>1.020717665399412</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004961716082738</v>
+        <v>1.045160439501958</v>
       </c>
       <c r="D16">
-        <v>1.024436932622349</v>
+        <v>1.048685562648106</v>
       </c>
       <c r="E16">
-        <v>1.01894129429497</v>
+        <v>1.053073385013623</v>
       </c>
       <c r="F16">
-        <v>1.024177665123425</v>
+        <v>1.064163158482747</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050614698483369</v>
+        <v>1.04735077028497</v>
       </c>
       <c r="J16">
-        <v>1.032903689169992</v>
+        <v>1.051414741646339</v>
       </c>
       <c r="K16">
-        <v>1.038343131675669</v>
+        <v>1.052078466679899</v>
       </c>
       <c r="L16">
-        <v>1.032941077989115</v>
+        <v>1.056451134663538</v>
       </c>
       <c r="M16">
-        <v>1.038088250086102</v>
+        <v>1.067503219082585</v>
       </c>
       <c r="N16">
-        <v>1.013948794773761</v>
+        <v>1.020870601976785</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007207012735035</v>
+        <v>1.045575015885303</v>
       </c>
       <c r="D17">
-        <v>1.026174352796014</v>
+        <v>1.049012146729813</v>
       </c>
       <c r="E17">
-        <v>1.02088207469207</v>
+        <v>1.053454057309336</v>
       </c>
       <c r="F17">
-        <v>1.02639066589979</v>
+        <v>1.064604100985484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051548438167742</v>
+        <v>1.047493245940635</v>
       </c>
       <c r="J17">
-        <v>1.03439102580534</v>
+        <v>1.051692998815975</v>
       </c>
       <c r="K17">
-        <v>1.039738504136419</v>
+        <v>1.052333257953082</v>
       </c>
       <c r="L17">
-        <v>1.034533610939531</v>
+        <v>1.05676017747167</v>
       </c>
       <c r="M17">
-        <v>1.03995127017386</v>
+        <v>1.067873195287127</v>
       </c>
       <c r="N17">
-        <v>1.014469686115473</v>
+        <v>1.020966420756175</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008504981710525</v>
+        <v>1.04581683446037</v>
       </c>
       <c r="D18">
-        <v>1.027179181001808</v>
+        <v>1.049202633483939</v>
       </c>
       <c r="E18">
-        <v>1.022004851824481</v>
+        <v>1.053676142454875</v>
       </c>
       <c r="F18">
-        <v>1.027670988755502</v>
+        <v>1.064861372726832</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052087093951236</v>
+        <v>1.047576200210734</v>
       </c>
       <c r="J18">
-        <v>1.0352504873419</v>
+        <v>1.051855236385168</v>
       </c>
       <c r="K18">
-        <v>1.04054469753081</v>
+        <v>1.052481792280581</v>
       </c>
       <c r="L18">
-        <v>1.035454263605272</v>
+        <v>1.056940409097141</v>
       </c>
       <c r="M18">
-        <v>1.041028587647008</v>
+        <v>1.068089004172234</v>
       </c>
       <c r="N18">
-        <v>1.014770640039132</v>
+        <v>1.021022269012366</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008945609758761</v>
+        <v>1.045899288901606</v>
       </c>
       <c r="D19">
-        <v>1.027520369678496</v>
+        <v>1.049267583822394</v>
       </c>
       <c r="E19">
-        <v>1.022386147733132</v>
+        <v>1.053751875455808</v>
       </c>
       <c r="F19">
-        <v>1.028105798432243</v>
+        <v>1.064949108883125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052269761907157</v>
+        <v>1.047604460139036</v>
       </c>
       <c r="J19">
-        <v>1.035542193252649</v>
+        <v>1.05191054415896</v>
       </c>
       <c r="K19">
-        <v>1.040818302147523</v>
+        <v>1.052532424889465</v>
       </c>
       <c r="L19">
-        <v>1.035766806492276</v>
+        <v>1.057001858707443</v>
       </c>
       <c r="M19">
-        <v>1.04139436533002</v>
+        <v>1.068162590790489</v>
       </c>
       <c r="N19">
-        <v>1.014872777484638</v>
+        <v>1.021041304830917</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006967329456382</v>
+        <v>1.045530535437143</v>
       </c>
       <c r="D20">
-        <v>1.025988837110282</v>
+        <v>1.048977107782853</v>
       </c>
       <c r="E20">
-        <v>1.020674810142618</v>
+        <v>1.053413210074607</v>
       </c>
       <c r="F20">
-        <v>1.02615432355318</v>
+        <v>1.064556784019296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0514488785932</v>
+        <v>1.047477975101437</v>
       </c>
       <c r="J20">
-        <v>1.034232289281114</v>
+        <v>1.051663151192281</v>
       </c>
       <c r="K20">
-        <v>1.03958959555575</v>
+        <v>1.052305929650338</v>
       </c>
       <c r="L20">
-        <v>1.034363605448342</v>
+        <v>1.05672702298054</v>
       </c>
       <c r="M20">
-        <v>1.039752359234765</v>
+        <v>1.0678334995127</v>
       </c>
       <c r="N20">
-        <v>1.014414098336301</v>
+        <v>1.020956144570582</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00039589078976</v>
+        <v>1.044331718513313</v>
       </c>
       <c r="D21">
-        <v>1.020907035607241</v>
+        <v>1.048032693073937</v>
       </c>
       <c r="E21">
-        <v>1.015000371957984</v>
+        <v>1.052312710288052</v>
       </c>
       <c r="F21">
-        <v>1.01968431525805</v>
+        <v>1.063282207689886</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048708734118811</v>
+        <v>1.047065004326282</v>
       </c>
       <c r="J21">
-        <v>1.02987706929243</v>
+        <v>1.05085808706544</v>
       </c>
       <c r="K21">
-        <v>1.035502855764174</v>
+        <v>1.051568618438808</v>
       </c>
       <c r="L21">
-        <v>1.029703023432595</v>
+        <v>1.055833178410003</v>
       </c>
       <c r="M21">
-        <v>1.034302118211918</v>
+        <v>1.066763685945655</v>
       </c>
       <c r="N21">
-        <v>1.012888559641585</v>
+        <v>1.020678796085587</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9961507102564067</v>
+        <v>1.043577999792026</v>
       </c>
       <c r="D22">
-        <v>1.017628970162991</v>
+        <v>1.047438865685604</v>
       </c>
       <c r="E22">
-        <v>1.011342969504551</v>
+        <v>1.051621192004111</v>
       </c>
       <c r="F22">
-        <v>1.015514521308578</v>
+        <v>1.062481527293543</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046928580250695</v>
+        <v>1.046804007200366</v>
       </c>
       <c r="J22">
-        <v>1.027060787111459</v>
+        <v>1.050351323982869</v>
       </c>
       <c r="K22">
-        <v>1.032859100601172</v>
+        <v>1.051104310983677</v>
       </c>
       <c r="L22">
-        <v>1.026693019965038</v>
+        <v>1.055270931885084</v>
       </c>
       <c r="M22">
-        <v>1.030784773036797</v>
+        <v>1.066091123014516</v>
       </c>
       <c r="N22">
-        <v>1.011901758169878</v>
+        <v>1.020504045330993</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9984123372037146</v>
+        <v>1.043977558147153</v>
       </c>
       <c r="D23">
-        <v>1.019374883079461</v>
+        <v>1.047753668190441</v>
       </c>
       <c r="E23">
-        <v>1.013290649465464</v>
+        <v>1.05198774009024</v>
       </c>
       <c r="F23">
-        <v>1.01773503831858</v>
+        <v>1.062905917180615</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047877882267221</v>
+        <v>1.046942494317494</v>
       </c>
       <c r="J23">
-        <v>1.028561409205307</v>
+        <v>1.050620024378508</v>
       </c>
       <c r="K23">
-        <v>1.034267891467402</v>
+        <v>1.051350518401273</v>
       </c>
       <c r="L23">
-        <v>1.028296511984528</v>
+        <v>1.055569013212584</v>
       </c>
       <c r="M23">
-        <v>1.032658290413156</v>
+        <v>1.066447654636149</v>
       </c>
       <c r="N23">
-        <v>1.012427588879045</v>
+        <v>1.020596719128098</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007075668003724</v>
+        <v>1.045550634226952</v>
       </c>
       <c r="D24">
-        <v>1.026072690117558</v>
+        <v>1.048992940387697</v>
       </c>
       <c r="E24">
-        <v>1.020768492581052</v>
+        <v>1.053431667041223</v>
       </c>
       <c r="F24">
-        <v>1.02626114880448</v>
+        <v>1.064578164280132</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051493883719242</v>
+        <v>1.047484875797786</v>
       </c>
       <c r="J24">
-        <v>1.034304040388394</v>
+        <v>1.051676638249767</v>
       </c>
       <c r="K24">
-        <v>1.039656904689495</v>
+        <v>1.052318278384531</v>
       </c>
       <c r="L24">
-        <v>1.034440449034021</v>
+        <v>1.056742004153784</v>
       </c>
       <c r="M24">
-        <v>1.039842267355941</v>
+        <v>1.067851436299529</v>
       </c>
       <c r="N24">
-        <v>1.014439224921577</v>
+        <v>1.020960788063845</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016674427249479</v>
+        <v>1.047376228187231</v>
       </c>
       <c r="D25">
-        <v>1.033510908589689</v>
+        <v>1.050430880500788</v>
       </c>
       <c r="E25">
-        <v>1.029086001827703</v>
+        <v>1.055109046019974</v>
       </c>
       <c r="F25">
-        <v>1.03574706841318</v>
+        <v>1.0665217523589</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055456948491596</v>
+        <v>1.048108419984956</v>
       </c>
       <c r="J25">
-        <v>1.040653372241922</v>
+        <v>1.052900225121922</v>
       </c>
       <c r="K25">
-        <v>1.04561036632956</v>
+        <v>1.053438128008858</v>
       </c>
       <c r="L25">
-        <v>1.041248971304873</v>
+        <v>1.058102103803433</v>
       </c>
       <c r="M25">
-        <v>1.047814691089146</v>
+        <v>1.06948076199008</v>
       </c>
       <c r="N25">
-        <v>1.016661633009695</v>
+        <v>1.021381652624563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048832438469514</v>
+        <v>1.024002521445367</v>
       </c>
       <c r="D2">
-        <v>1.051577634859348</v>
+        <v>1.039200576287788</v>
       </c>
       <c r="E2">
-        <v>1.056448354664799</v>
+        <v>1.035459421181337</v>
       </c>
       <c r="F2">
-        <v>1.068074410413953</v>
+        <v>1.04301857653516</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048601033404903</v>
+        <v>1.058446080576032</v>
       </c>
       <c r="J2">
-        <v>1.053874097212401</v>
+        <v>1.045488278519817</v>
       </c>
       <c r="K2">
-        <v>1.054328750161321</v>
+        <v>1.050139518576391</v>
       </c>
       <c r="L2">
-        <v>1.059186037602366</v>
+        <v>1.046445902093978</v>
       </c>
       <c r="M2">
-        <v>1.070780567098123</v>
+        <v>1.053909442187217</v>
       </c>
       <c r="N2">
-        <v>1.021716025764823</v>
+        <v>1.018352115705208</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049889857897529</v>
+        <v>1.029150336641002</v>
       </c>
       <c r="D3">
-        <v>1.052410194190819</v>
+        <v>1.043202577161222</v>
       </c>
       <c r="E3">
-        <v>1.057421644908147</v>
+        <v>1.039949167369795</v>
       </c>
       <c r="F3">
-        <v>1.069203208465161</v>
+        <v>1.048142964222818</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048955975781732</v>
+        <v>1.060523982939334</v>
       </c>
       <c r="J3">
-        <v>1.054580023675025</v>
+        <v>1.048876691135801</v>
       </c>
       <c r="K3">
-        <v>1.054973932454646</v>
+        <v>1.053310976475937</v>
       </c>
       <c r="L3">
-        <v>1.059972562450034</v>
+        <v>1.050095186933092</v>
       </c>
       <c r="M3">
-        <v>1.071724495233988</v>
+        <v>1.058194787124665</v>
       </c>
       <c r="N3">
-        <v>1.021958050819042</v>
+        <v>1.019535570945666</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050574120440573</v>
+        <v>1.032406377774576</v>
       </c>
       <c r="D4">
-        <v>1.052948874847748</v>
+        <v>1.045735884579432</v>
       </c>
       <c r="E4">
-        <v>1.058051814650905</v>
+        <v>1.042794485931567</v>
       </c>
       <c r="F4">
-        <v>1.069934280056664</v>
+        <v>1.051391513956468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04918438026571</v>
+        <v>1.061827883506413</v>
       </c>
       <c r="J4">
-        <v>1.055036254886989</v>
+        <v>1.05101594417497</v>
       </c>
       <c r="K4">
-        <v>1.055390719906468</v>
+        <v>1.055311959260271</v>
       </c>
       <c r="L4">
-        <v>1.060481262562683</v>
+        <v>1.052402461585611</v>
       </c>
       <c r="M4">
-        <v>1.072335352584667</v>
+        <v>1.060906864680089</v>
       </c>
       <c r="N4">
-        <v>1.022114305323495</v>
+        <v>1.020282082228179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050861794570342</v>
+        <v>1.033757987299832</v>
       </c>
       <c r="D5">
-        <v>1.053175325984747</v>
+        <v>1.046787909545911</v>
       </c>
       <c r="E5">
-        <v>1.058316830135869</v>
+        <v>1.04397688172798</v>
       </c>
       <c r="F5">
-        <v>1.070241781398212</v>
+        <v>1.052741740979342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049280098105534</v>
+        <v>1.062366611407064</v>
       </c>
       <c r="J5">
-        <v>1.05522792259861</v>
+        <v>1.051902982203498</v>
       </c>
       <c r="K5">
-        <v>1.055565772291504</v>
+        <v>1.056141343688087</v>
       </c>
       <c r="L5">
-        <v>1.06069506390823</v>
+        <v>1.053359968849387</v>
       </c>
       <c r="M5">
-        <v>1.072592174334372</v>
+        <v>1.062033007723212</v>
       </c>
       <c r="N5">
-        <v>1.022179910326635</v>
+        <v>1.020591454913679</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050910096924928</v>
+        <v>1.033983938011748</v>
       </c>
       <c r="D6">
-        <v>1.053213347516125</v>
+        <v>1.046963801908578</v>
       </c>
       <c r="E6">
-        <v>1.058361332796858</v>
+        <v>1.044174618818105</v>
       </c>
       <c r="F6">
-        <v>1.07029342153948</v>
+        <v>1.052967561264676</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049296151757602</v>
+        <v>1.0624565214438</v>
       </c>
       <c r="J6">
-        <v>1.055260096713246</v>
+        <v>1.05205121091336</v>
       </c>
       <c r="K6">
-        <v>1.055595154672277</v>
+        <v>1.056279919106658</v>
       </c>
       <c r="L6">
-        <v>1.060730958796142</v>
+        <v>1.053520020415046</v>
       </c>
       <c r="M6">
-        <v>1.072635296849246</v>
+        <v>1.062221285650692</v>
       </c>
       <c r="N6">
-        <v>1.022190920742363</v>
+        <v>1.020643142607692</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050577964316165</v>
+        <v>1.032424504838882</v>
       </c>
       <c r="D7">
-        <v>1.052951900739569</v>
+        <v>1.045749992151768</v>
       </c>
       <c r="E7">
-        <v>1.058055355439109</v>
+        <v>1.042810338584692</v>
       </c>
       <c r="F7">
-        <v>1.069938388280558</v>
+        <v>1.051409615692396</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049185660444454</v>
+        <v>1.061835118693732</v>
       </c>
       <c r="J7">
-        <v>1.055038816478715</v>
+        <v>1.051027844588342</v>
       </c>
       <c r="K7">
-        <v>1.055393059613822</v>
+        <v>1.055323087475661</v>
       </c>
       <c r="L7">
-        <v>1.060484119607662</v>
+        <v>1.052415304243305</v>
       </c>
       <c r="M7">
-        <v>1.072338784181509</v>
+        <v>1.060921966622171</v>
       </c>
       <c r="N7">
-        <v>1.022115182272537</v>
+        <v>1.020286233414551</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049189789867829</v>
+        <v>1.025758207270956</v>
       </c>
       <c r="D8">
-        <v>1.051859010400839</v>
+        <v>1.04056502293305</v>
       </c>
       <c r="E8">
-        <v>1.056777202609114</v>
+        <v>1.036989485600523</v>
       </c>
       <c r="F8">
-        <v>1.068455755523088</v>
+        <v>1.04476471425174</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048721250122414</v>
+        <v>1.059156917134806</v>
       </c>
       <c r="J8">
-        <v>1.054112782260087</v>
+        <v>1.046644719141756</v>
       </c>
       <c r="K8">
-        <v>1.054546935004469</v>
+        <v>1.051222181468699</v>
       </c>
       <c r="L8">
-        <v>1.059451895730952</v>
+        <v>1.04769067940223</v>
       </c>
       <c r="M8">
-        <v>1.071099556916639</v>
+        <v>1.055370628894936</v>
       </c>
       <c r="N8">
-        <v>1.021797892037354</v>
+        <v>1.018756152248343</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046743956056497</v>
+        <v>1.013403261100169</v>
       </c>
       <c r="D9">
-        <v>1.049932902848512</v>
+        <v>1.030974112077603</v>
       </c>
       <c r="E9">
-        <v>1.054527900166732</v>
+        <v>1.026247608404576</v>
       </c>
       <c r="F9">
-        <v>1.06584825326342</v>
+        <v>1.032509564137552</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047893200124498</v>
+        <v>1.054112025532087</v>
       </c>
       <c r="J9">
-        <v>1.052476781080288</v>
+        <v>1.038491434553298</v>
       </c>
       <c r="K9">
-        <v>1.053050689685976</v>
+        <v>1.04358387810594</v>
       </c>
       <c r="L9">
-        <v>1.057631198968513</v>
+        <v>1.038928721171525</v>
       </c>
       <c r="M9">
-        <v>1.068916440817413</v>
+        <v>1.045096331302106</v>
       </c>
       <c r="N9">
-        <v>1.021236097455618</v>
+        <v>1.015905169241289</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045113588800083</v>
+        <v>1.004706369570603</v>
       </c>
       <c r="D10">
-        <v>1.048648654939387</v>
+        <v>1.024239408304765</v>
       </c>
       <c r="E10">
-        <v>1.053030371529929</v>
+        <v>1.018720695690676</v>
       </c>
       <c r="F10">
-        <v>1.064113338210614</v>
+        <v>1.023926132388124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047334648953143</v>
+        <v>1.050508356783453</v>
       </c>
       <c r="J10">
-        <v>1.051383287094274</v>
+        <v>1.032734496111697</v>
       </c>
       <c r="K10">
-        <v>1.052049661839775</v>
+        <v>1.038184383092938</v>
       </c>
       <c r="L10">
-        <v>1.056416206087551</v>
+        <v>1.032759973295087</v>
       </c>
       <c r="M10">
-        <v>1.067461409293886</v>
+        <v>1.037876425248107</v>
       </c>
       <c r="N10">
-        <v>1.020859767957736</v>
+        <v>1.013889534621988</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044407661661176</v>
+        <v>1.000818678462098</v>
       </c>
       <c r="D11">
-        <v>1.048092523591809</v>
+        <v>1.02123371641357</v>
       </c>
       <c r="E11">
-        <v>1.052382402685791</v>
+        <v>1.015364977079045</v>
       </c>
       <c r="F11">
-        <v>1.06336291101556</v>
+        <v>1.020100013759999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047091244474434</v>
+        <v>1.048885611550945</v>
       </c>
       <c r="J11">
-        <v>1.050909121901566</v>
+        <v>1.030157439068401</v>
       </c>
       <c r="K11">
-        <v>1.051615369527483</v>
+        <v>1.035766005964323</v>
       </c>
       <c r="L11">
-        <v>1.055889817823942</v>
+        <v>1.030002835225992</v>
       </c>
       <c r="M11">
-        <v>1.066831454112936</v>
+        <v>1.034652573736581</v>
       </c>
       <c r="N11">
-        <v>1.020696387678688</v>
+        <v>1.012986786972988</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044145453266433</v>
+        <v>0.9993551213589955</v>
       </c>
       <c r="D12">
-        <v>1.047885945340301</v>
+        <v>1.020103011681168</v>
       </c>
       <c r="E12">
-        <v>1.052141788999797</v>
+        <v>1.014103104629202</v>
       </c>
       <c r="F12">
-        <v>1.063084289312423</v>
+        <v>1.018661322267921</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047000600573109</v>
+        <v>1.048272992711612</v>
       </c>
       <c r="J12">
-        <v>1.050732894332233</v>
+        <v>1.029186798705022</v>
       </c>
       <c r="K12">
-        <v>1.051453927741822</v>
+        <v>1.034854944827936</v>
       </c>
       <c r="L12">
-        <v>1.055694250412689</v>
+        <v>1.028965008975087</v>
       </c>
       <c r="M12">
-        <v>1.066597473048623</v>
+        <v>1.033439525958929</v>
       </c>
       <c r="N12">
-        <v>1.02063563688025</v>
+        <v>1.012646714006722</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044201697667615</v>
+        <v>0.9996699616494625</v>
       </c>
       <c r="D13">
-        <v>1.04793025735819</v>
+        <v>1.020346210525185</v>
       </c>
       <c r="E13">
-        <v>1.052193398248009</v>
+        <v>1.014374493252538</v>
       </c>
       <c r="F13">
-        <v>1.063144049169625</v>
+        <v>1.01897073637693</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047020054525898</v>
+        <v>1.048404856053573</v>
       </c>
       <c r="J13">
-        <v>1.050770700338661</v>
+        <v>1.029395623702287</v>
       </c>
       <c r="K13">
-        <v>1.051488563267258</v>
+        <v>1.035050960106536</v>
       </c>
       <c r="L13">
-        <v>1.05573620224984</v>
+        <v>1.029188259473492</v>
       </c>
       <c r="M13">
-        <v>1.06664766222509</v>
+        <v>1.033700448550084</v>
       </c>
       <c r="N13">
-        <v>1.020648671031547</v>
+        <v>1.012719880111084</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04438598734724</v>
+        <v>1.000698105279274</v>
       </c>
       <c r="D14">
-        <v>1.048075447896419</v>
+        <v>1.021140547745537</v>
       </c>
       <c r="E14">
-        <v>1.052362512039039</v>
+        <v>1.015260990166784</v>
       </c>
       <c r="F14">
-        <v>1.063339877604255</v>
+        <v>1.019981454511924</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04708375656735</v>
+        <v>1.048835176408464</v>
       </c>
       <c r="J14">
-        <v>1.050894556946835</v>
+        <v>1.030077483660221</v>
       </c>
       <c r="K14">
-        <v>1.051602027275188</v>
+        <v>1.035690962054037</v>
       </c>
       <c r="L14">
-        <v>1.055873653045819</v>
+        <v>1.029917332429917</v>
       </c>
       <c r="M14">
-        <v>1.066812112914274</v>
+        <v>1.034552625859855</v>
       </c>
       <c r="N14">
-        <v>1.020691367305642</v>
+        <v>1.012958774901888</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044499534865326</v>
+        <v>1.001328958049346</v>
       </c>
       <c r="D15">
-        <v>1.048164903750089</v>
+        <v>1.02162805068435</v>
       </c>
       <c r="E15">
-        <v>1.052466718009222</v>
+        <v>1.015805119884077</v>
       </c>
       <c r="F15">
-        <v>1.06346054991046</v>
+        <v>1.02060183916134</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047122974668946</v>
+        <v>1.049098989101113</v>
       </c>
       <c r="J15">
-        <v>1.050970855638177</v>
+        <v>1.030495800200705</v>
       </c>
       <c r="K15">
-        <v>1.051671919461843</v>
+        <v>1.036083574718458</v>
       </c>
       <c r="L15">
-        <v>1.055958335268767</v>
+        <v>1.030364698311003</v>
       </c>
       <c r="M15">
-        <v>1.066913438042236</v>
+        <v>1.035075589496394</v>
       </c>
       <c r="N15">
-        <v>1.020717665399412</v>
+        <v>1.013105328303417</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045160439501958</v>
+        <v>1.004961716082738</v>
       </c>
       <c r="D16">
-        <v>1.048685562648106</v>
+        <v>1.024436932622349</v>
       </c>
       <c r="E16">
-        <v>1.053073385013623</v>
+        <v>1.018941294294969</v>
       </c>
       <c r="F16">
-        <v>1.064163158482747</v>
+        <v>1.024177665123425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04735077028497</v>
+        <v>1.050614698483369</v>
       </c>
       <c r="J16">
-        <v>1.051414741646339</v>
+        <v>1.032903689169992</v>
       </c>
       <c r="K16">
-        <v>1.052078466679899</v>
+        <v>1.038343131675669</v>
       </c>
       <c r="L16">
-        <v>1.056451134663538</v>
+        <v>1.032941077989115</v>
       </c>
       <c r="M16">
-        <v>1.067503219082585</v>
+        <v>1.038088250086101</v>
       </c>
       <c r="N16">
-        <v>1.020870601976785</v>
+        <v>1.013948794773761</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045575015885303</v>
+        <v>1.007207012735034</v>
       </c>
       <c r="D17">
-        <v>1.049012146729813</v>
+        <v>1.026174352796012</v>
       </c>
       <c r="E17">
-        <v>1.053454057309336</v>
+        <v>1.020882074692069</v>
       </c>
       <c r="F17">
-        <v>1.064604100985484</v>
+        <v>1.026390665899789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047493245940635</v>
+        <v>1.051548438167741</v>
       </c>
       <c r="J17">
-        <v>1.051692998815975</v>
+        <v>1.034391025805339</v>
       </c>
       <c r="K17">
-        <v>1.052333257953082</v>
+        <v>1.039738504136417</v>
       </c>
       <c r="L17">
-        <v>1.05676017747167</v>
+        <v>1.03453361093953</v>
       </c>
       <c r="M17">
-        <v>1.067873195287127</v>
+        <v>1.039951270173858</v>
       </c>
       <c r="N17">
-        <v>1.020966420756175</v>
+        <v>1.014469686115473</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04581683446037</v>
+        <v>1.008504981710524</v>
       </c>
       <c r="D18">
-        <v>1.049202633483939</v>
+        <v>1.027179181001808</v>
       </c>
       <c r="E18">
-        <v>1.053676142454875</v>
+        <v>1.02200485182448</v>
       </c>
       <c r="F18">
-        <v>1.064861372726832</v>
+        <v>1.027670988755502</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047576200210734</v>
+        <v>1.052087093951236</v>
       </c>
       <c r="J18">
-        <v>1.051855236385168</v>
+        <v>1.0352504873419</v>
       </c>
       <c r="K18">
-        <v>1.052481792280581</v>
+        <v>1.04054469753081</v>
       </c>
       <c r="L18">
-        <v>1.056940409097141</v>
+        <v>1.035454263605272</v>
       </c>
       <c r="M18">
-        <v>1.068089004172234</v>
+        <v>1.041028587647008</v>
       </c>
       <c r="N18">
-        <v>1.021022269012366</v>
+        <v>1.014770640039132</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045899288901606</v>
+        <v>1.008945609758762</v>
       </c>
       <c r="D19">
-        <v>1.049267583822394</v>
+        <v>1.027520369678497</v>
       </c>
       <c r="E19">
-        <v>1.053751875455808</v>
+        <v>1.022386147733132</v>
       </c>
       <c r="F19">
-        <v>1.064949108883125</v>
+        <v>1.028105798432244</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047604460139036</v>
+        <v>1.052269761907158</v>
       </c>
       <c r="J19">
-        <v>1.05191054415896</v>
+        <v>1.03554219325265</v>
       </c>
       <c r="K19">
-        <v>1.052532424889465</v>
+        <v>1.040818302147524</v>
       </c>
       <c r="L19">
-        <v>1.057001858707443</v>
+        <v>1.035766806492277</v>
       </c>
       <c r="M19">
-        <v>1.068162590790489</v>
+        <v>1.04139436533002</v>
       </c>
       <c r="N19">
-        <v>1.021041304830917</v>
+        <v>1.014872777484638</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045530535437143</v>
+        <v>1.006967329456382</v>
       </c>
       <c r="D20">
-        <v>1.048977107782853</v>
+        <v>1.025988837110283</v>
       </c>
       <c r="E20">
-        <v>1.053413210074607</v>
+        <v>1.020674810142618</v>
       </c>
       <c r="F20">
-        <v>1.064556784019296</v>
+        <v>1.02615432355318</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047477975101437</v>
+        <v>1.051448878593201</v>
       </c>
       <c r="J20">
-        <v>1.051663151192281</v>
+        <v>1.034232289281115</v>
       </c>
       <c r="K20">
-        <v>1.052305929650338</v>
+        <v>1.03958959555575</v>
       </c>
       <c r="L20">
-        <v>1.05672702298054</v>
+        <v>1.034363605448343</v>
       </c>
       <c r="M20">
-        <v>1.0678334995127</v>
+        <v>1.039752359234766</v>
       </c>
       <c r="N20">
-        <v>1.020956144570582</v>
+        <v>1.014414098336301</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044331718513313</v>
+        <v>1.00039589078976</v>
       </c>
       <c r="D21">
-        <v>1.048032693073937</v>
+        <v>1.020907035607242</v>
       </c>
       <c r="E21">
-        <v>1.052312710288052</v>
+        <v>1.015000371957984</v>
       </c>
       <c r="F21">
-        <v>1.063282207689886</v>
+        <v>1.01968431525805</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047065004326282</v>
+        <v>1.048708734118811</v>
       </c>
       <c r="J21">
-        <v>1.05085808706544</v>
+        <v>1.02987706929243</v>
       </c>
       <c r="K21">
-        <v>1.051568618438808</v>
+        <v>1.035502855764175</v>
       </c>
       <c r="L21">
-        <v>1.055833178410003</v>
+        <v>1.029703023432595</v>
       </c>
       <c r="M21">
-        <v>1.066763685945655</v>
+        <v>1.034302118211919</v>
       </c>
       <c r="N21">
-        <v>1.020678796085587</v>
+        <v>1.012888559641585</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043577999792026</v>
+        <v>0.9961507102564062</v>
       </c>
       <c r="D22">
-        <v>1.047438865685604</v>
+        <v>1.01762897016299</v>
       </c>
       <c r="E22">
-        <v>1.051621192004111</v>
+        <v>1.011342969504551</v>
       </c>
       <c r="F22">
-        <v>1.062481527293543</v>
+        <v>1.015514521308577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046804007200366</v>
+        <v>1.046928580250695</v>
       </c>
       <c r="J22">
-        <v>1.050351323982869</v>
+        <v>1.027060787111459</v>
       </c>
       <c r="K22">
-        <v>1.051104310983677</v>
+        <v>1.032859100601172</v>
       </c>
       <c r="L22">
-        <v>1.055270931885084</v>
+        <v>1.026693019965038</v>
       </c>
       <c r="M22">
-        <v>1.066091123014516</v>
+        <v>1.030784773036796</v>
       </c>
       <c r="N22">
-        <v>1.020504045330993</v>
+        <v>1.011901758169878</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043977558147153</v>
+        <v>0.9984123372037136</v>
       </c>
       <c r="D23">
-        <v>1.047753668190441</v>
+        <v>1.019374883079461</v>
       </c>
       <c r="E23">
-        <v>1.05198774009024</v>
+        <v>1.013290649465463</v>
       </c>
       <c r="F23">
-        <v>1.062905917180615</v>
+        <v>1.017735038318579</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046942494317494</v>
+        <v>1.04787788226722</v>
       </c>
       <c r="J23">
-        <v>1.050620024378508</v>
+        <v>1.028561409205307</v>
       </c>
       <c r="K23">
-        <v>1.051350518401273</v>
+        <v>1.034267891467402</v>
       </c>
       <c r="L23">
-        <v>1.055569013212584</v>
+        <v>1.028296511984527</v>
       </c>
       <c r="M23">
-        <v>1.066447654636149</v>
+        <v>1.032658290413155</v>
       </c>
       <c r="N23">
-        <v>1.020596719128098</v>
+        <v>1.012427588879045</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045550634226952</v>
+        <v>1.007075668003724</v>
       </c>
       <c r="D24">
-        <v>1.048992940387697</v>
+        <v>1.026072690117558</v>
       </c>
       <c r="E24">
-        <v>1.053431667041223</v>
+        <v>1.020768492581052</v>
       </c>
       <c r="F24">
-        <v>1.064578164280132</v>
+        <v>1.02626114880448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047484875797786</v>
+        <v>1.051493883719242</v>
       </c>
       <c r="J24">
-        <v>1.051676638249767</v>
+        <v>1.034304040388393</v>
       </c>
       <c r="K24">
-        <v>1.052318278384531</v>
+        <v>1.039656904689495</v>
       </c>
       <c r="L24">
-        <v>1.056742004153784</v>
+        <v>1.034440449034021</v>
       </c>
       <c r="M24">
-        <v>1.067851436299529</v>
+        <v>1.039842267355941</v>
       </c>
       <c r="N24">
-        <v>1.020960788063845</v>
+        <v>1.014439224921577</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047376228187231</v>
+        <v>1.016674427249479</v>
       </c>
       <c r="D25">
-        <v>1.050430880500788</v>
+        <v>1.033510908589688</v>
       </c>
       <c r="E25">
-        <v>1.055109046019974</v>
+        <v>1.029086001827702</v>
       </c>
       <c r="F25">
-        <v>1.0665217523589</v>
+        <v>1.035747068413179</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048108419984956</v>
+        <v>1.055456948491596</v>
       </c>
       <c r="J25">
-        <v>1.052900225121922</v>
+        <v>1.040653372241922</v>
       </c>
       <c r="K25">
-        <v>1.053438128008858</v>
+        <v>1.045610366329559</v>
       </c>
       <c r="L25">
-        <v>1.058102103803433</v>
+        <v>1.041248971304872</v>
       </c>
       <c r="M25">
-        <v>1.06948076199008</v>
+        <v>1.047814691089144</v>
       </c>
       <c r="N25">
-        <v>1.021381652624563</v>
+        <v>1.016661633009695</v>
       </c>
     </row>
   </sheetData>
